--- a/Hardware/ASML.xlsx
+++ b/Hardware/ASML.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260057D7-555F-2D4C-A0E6-586163113CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33256F3-8C02-C548-BF7A-E36F25F663C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28460" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>ASML</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -861,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -899,24 +933,8 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -979,6 +997,15 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1003,15 +1030,27 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2304,6 +2343,423 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=alnz5r&amp;q=XAMS%3aASML&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>ASML Holding NV (XAMS:ASML)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>alnz5r</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>639.5</v>
+    <v>375.75</v>
+    <v>1.5926</v>
+    <v>0.8</v>
+    <v>1.32E-3</v>
+    <v>EUR</v>
+    <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
+    <v>36112</v>
+    <v>Euronext Amsterdam</v>
+    <v>XAMS</v>
+    <v>XAMS</v>
+    <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
+    <v>608.70000000000005</v>
+    <v>Semiconductors &amp; Semiconductor Equipment</v>
+    <v>Stock</v>
+    <v>45022.666666666664</v>
+    <v>0</v>
+    <v>601.5</v>
+    <v>244382400000</v>
+    <v>ASML Holding NV</v>
+    <v>ASML Holding NV</v>
+    <v>606.29999999999995</v>
+    <v>37.679099999999998</v>
+    <v>606.20000000000005</v>
+    <v>607</v>
+    <v>403138200</v>
+    <v>ASML</v>
+    <v>ASML Holding NV (XAMS:ASML)</v>
+    <v>400108</v>
+    <v>576670</v>
+    <v>1994</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="42">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+    </spb>
+    <spb s="4">
+      <v>Delayed 15 minutes</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$€-x-euro2] * #,##0.00_);_([$€-x-euro2] * (#,##0.00);_([$€-x-euro2] * "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$€-x-euro2] * #,##0_);_([$€-x-euro2] * (#,##0);_([$€-x-euro2] * "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2603,11 +3059,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W80" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AA78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF86" sqref="AF86"/>
+      <selection pane="bottomRight" activeCell="AE139" sqref="AE139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2622,8 +3078,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1995</v>
@@ -2712,16 +3168,16 @@
       <c r="AD1" s="8">
         <v>2023</v>
       </c>
-      <c r="AE1" s="24">
+      <c r="AE1" s="21">
         <v>2024</v>
       </c>
-      <c r="AF1" s="24">
+      <c r="AF1" s="21">
         <v>2025</v>
       </c>
-      <c r="AG1" s="24">
+      <c r="AG1" s="21">
         <v>2026</v>
       </c>
-      <c r="AH1" s="24">
+      <c r="AH1" s="21">
         <v>2027</v>
       </c>
     </row>
@@ -2827,7 +3283,7 @@
     </row>
     <row r="3" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2844,33 +3300,33 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25">
         <v>214</v>
       </c>
-      <c r="W3" s="35">
+      <c r="W3" s="25">
         <v>212</v>
       </c>
-      <c r="X3" s="35">
+      <c r="X3" s="25">
         <v>292</v>
       </c>
-      <c r="Y3" s="35">
+      <c r="Y3" s="25">
         <v>338</v>
       </c>
-      <c r="Z3" s="35">
+      <c r="Z3" s="25">
         <v>344</v>
       </c>
-      <c r="AA3" s="35">
+      <c r="AA3" s="25">
         <v>395</v>
       </c>
-      <c r="AB3" s="35">
+      <c r="AB3" s="25">
         <v>505</v>
       </c>
-      <c r="AC3" s="35">
+      <c r="AC3" s="25">
         <v>561</v>
       </c>
       <c r="AD3" s="1"/>
@@ -2967,37 +3423,37 @@
       <c r="AC4" s="1">
         <v>21173400000</v>
       </c>
-      <c r="AD4" s="25">
+      <c r="AD4" s="22">
         <v>28000000000</v>
       </c>
-      <c r="AE4" s="25">
+      <c r="AE4" s="22">
         <v>31400000000</v>
       </c>
-      <c r="AF4" s="25">
+      <c r="AF4" s="22">
         <v>36800000000</v>
       </c>
-      <c r="AG4" s="25">
+      <c r="AG4" s="22">
         <v>41041000000</v>
       </c>
-      <c r="AH4" s="25">
+      <c r="AH4" s="22">
         <v>45895000000</v>
       </c>
-      <c r="AI4" s="56" t="s">
+      <c r="AI4" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ4" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="AJ4" s="56" t="s">
+      <c r="AK4" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="AK4" s="56" t="s">
+      <c r="AL4" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="AL4" s="18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="15">
@@ -3128,15 +3584,15 @@
         <f t="shared" si="9"/>
         <v>0.11827197193050853</v>
       </c>
-      <c r="AI5" s="57">
+      <c r="AI5" s="47">
         <f>(AC5+AB5+AA5)/3</f>
         <v>0.21723267494156651</v>
       </c>
-      <c r="AJ5" s="57">
+      <c r="AJ5" s="47">
         <f>(AC21+AB21+AA21)/3</f>
         <v>0.32336582629238492</v>
       </c>
-      <c r="AK5" s="57">
+      <c r="AK5" s="47">
         <f>(AC30+AB30+AA30)/3</f>
         <v>0.32286462810370614</v>
       </c>
@@ -3322,17 +3778,17 @@
       <c r="AC7" s="10">
         <v>10700100000</v>
       </c>
-      <c r="AI7" s="56" t="s">
+      <c r="AI7" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ7" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="AJ7" s="56" t="s">
+      <c r="AK7" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="AK7" s="56" t="s">
+      <c r="AL7" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="AL7" s="18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3423,15 +3879,15 @@
       <c r="AC8" s="2">
         <v>0.50539999999999996</v>
       </c>
-      <c r="AI8" s="57">
+      <c r="AI8" s="47">
         <f>AC8</f>
         <v>0.50539999999999996</v>
       </c>
-      <c r="AJ8" s="57">
+      <c r="AJ8" s="47">
         <f>AC22</f>
         <v>0.33040000000000003</v>
       </c>
-      <c r="AK8" s="57">
+      <c r="AK8" s="47">
         <f>AC31</f>
         <v>0.2591</v>
       </c>
@@ -3531,7 +3987,7 @@
     </row>
     <row r="10" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="15" t="e">
         <f>B9/B4</f>
@@ -3645,17 +4101,17 @@
         <f t="shared" ref="AC10" si="22">AC9/AC4</f>
         <v>0.15365978066819688</v>
       </c>
-      <c r="AI10" s="56" t="s">
+      <c r="AI10" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ10" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AJ10" s="18" t="s">
+      <c r="AK10" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="AK10" s="18" t="s">
+      <c r="AL10" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="AL10" s="18" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -3746,15 +4202,15 @@
       <c r="AC11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI11" s="57">
+      <c r="AI11" s="47">
         <f>(AC10+AB10+AA10)/3</f>
         <v>0.14931870488429119</v>
       </c>
-      <c r="AJ11" s="57">
+      <c r="AJ11" s="47">
         <f>(AC14+AB14+AA14)/3</f>
         <v>4.0880988625067081E-2</v>
       </c>
-      <c r="AK11" s="57">
+      <c r="AK11" s="47">
         <f>(AC81+AB81+AA81)/3</f>
         <v>4.4744916917326275E-3</v>
       </c>
@@ -3940,22 +4396,22 @@
       <c r="AC13" s="1">
         <v>945900000</v>
       </c>
-      <c r="AI13" s="56" t="s">
+      <c r="AI13" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ13" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="AJ13" s="56" t="s">
+      <c r="AK13" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="AK13" s="56" t="s">
+      <c r="AL13" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="AL13" s="18" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="15">
         <f>B13/B4</f>
@@ -4069,7 +4525,7 @@
         <f t="shared" ref="AC14" si="35">AC13/AC4</f>
         <v>4.4673977726770384E-2</v>
       </c>
-      <c r="AI14" s="57">
+      <c r="AI14" s="47">
         <f>AC29/AC73</f>
         <v>0.62266763517501245</v>
       </c>
@@ -4077,7 +4533,7 @@
         <f>AC29/AC55</f>
         <v>0.15113332084494938</v>
       </c>
-      <c r="AK14" s="57">
+      <c r="AK14" s="47">
         <f>(AC29-AC99)/AC74</f>
         <v>0.2216504501327809</v>
       </c>
@@ -4263,17 +4719,17 @@
       <c r="AC16" s="1">
         <v>4199400000</v>
       </c>
-      <c r="AI16" s="56" t="s">
-        <v>141</v>
+      <c r="AI16" s="46" t="s">
+        <v>140</v>
       </c>
       <c r="AJ16" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK16" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="AK16" s="18" t="s">
+      <c r="AL16" s="48" t="s">
         <v>159</v>
-      </c>
-      <c r="AL16" s="58" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4368,17 +4824,17 @@
         <f>(SUM(Y36:AC36)/5)</f>
         <v>-9.9987576959951977E-3</v>
       </c>
-      <c r="AJ17" s="59">
+      <c r="AJ17" s="49">
         <f>AK101/AC4</f>
-        <v>11.712809468484041</v>
-      </c>
-      <c r="AK17" s="59">
+        <v>11.541953583269574</v>
+      </c>
+      <c r="AK17" s="49">
         <f>AK101/AC26</f>
-        <v>38.41328356128313</v>
-      </c>
-      <c r="AL17" s="60">
+        <v>37.852945276560149</v>
+      </c>
+      <c r="AL17" s="50">
         <f>AK101/AC107</f>
-        <v>34.600627833972794</v>
+        <v>34.095905127310779</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4558,8 +5014,8 @@
       <c r="AC19" s="1">
         <v>583600000</v>
       </c>
-      <c r="AI19" s="69" t="s">
-        <v>161</v>
+      <c r="AI19" s="51" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4650,14 +5106,14 @@
       <c r="AC20" s="10">
         <v>6995100000</v>
       </c>
-      <c r="AI20" s="70">
+      <c r="AI20" s="52">
         <f>AC41-AC57-AC62</f>
         <v>3861800000</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="15">
@@ -5483,7 +5939,7 @@
     </row>
     <row r="30" spans="1:38" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="15">
@@ -6042,114 +6498,114 @@
     </row>
     <row r="36" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="36">
+      <c r="C36" s="26">
         <f>(C35-B35)/B35</f>
         <v>4.1735427891645867E-2</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="26">
         <f t="shared" ref="D36:G36" si="62">(D35-C35)/C35</f>
         <v>2.3061923137880198E-2</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="26">
         <f t="shared" si="62"/>
         <v>2.1963683622972824E-2</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="26">
         <f t="shared" si="62"/>
         <v>-0.12146748094155442</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="26">
         <f t="shared" si="62"/>
         <v>3.9632295351572443E-2</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="26">
         <f t="shared" ref="H36" si="63">(H35-G35)/G35</f>
         <v>6.6059800089528317E-2</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="26">
         <f t="shared" ref="I36" si="64">(I35-H35)/H35</f>
         <v>2.3611940477784515E-2</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="26">
         <f t="shared" ref="J36" si="65">(J35-I35)/I35</f>
         <v>1.1269413512263345E-2</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="26">
         <f t="shared" ref="K36" si="66">(K35-J35)/J35</f>
         <v>5.0203212061519838E-3</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="26">
         <f t="shared" ref="L36" si="67">(L35-K35)/K35</f>
         <v>0.12032740392851796</v>
       </c>
-      <c r="M36" s="36">
+      <c r="M36" s="26">
         <f t="shared" ref="M36" si="68">(M35-L35)/L35</f>
         <v>-7.1818615831729993E-2</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36" s="26">
         <f t="shared" ref="N36" si="69">(N35-M35)/M35</f>
         <v>8.4060985386721909E-2</v>
       </c>
-      <c r="O36" s="36">
+      <c r="O36" s="26">
         <f t="shared" ref="O36" si="70">(O35-N35)/N35</f>
         <v>-0.10591730962867786</v>
       </c>
-      <c r="P36" s="36">
+      <c r="P36" s="26">
         <f t="shared" ref="P36" si="71">(P35-O35)/O35</f>
         <v>-3.6618647873700211E-3</v>
       </c>
-      <c r="Q36" s="36">
+      <c r="Q36" s="26">
         <f t="shared" ref="Q36" si="72">(Q35-P35)/P35</f>
         <v>1.4759081400321302E-2</v>
       </c>
-      <c r="R36" s="36">
+      <c r="R36" s="26">
         <f t="shared" ref="R36" si="73">(R35-Q35)/Q35</f>
         <v>-2.2658314350797265E-2</v>
       </c>
-      <c r="S36" s="36">
+      <c r="S36" s="26">
         <f t="shared" ref="S36" si="74">(S35-R35)/R35</f>
         <v>0.292487069302521</v>
       </c>
-      <c r="T36" s="36">
+      <c r="T36" s="26">
         <f t="shared" ref="T36" si="75">(T35-S35)/S35</f>
         <v>1.5096018735362997E-2</v>
       </c>
-      <c r="U36" s="36">
+      <c r="U36" s="26">
         <f t="shared" ref="U36" si="76">(U35-T35)/T35</f>
         <v>1.4412406620432534E-2</v>
       </c>
-      <c r="V36" s="36">
+      <c r="V36" s="26">
         <f t="shared" ref="V36" si="77">(V35-U35)/U35</f>
         <v>-1.6131710079532766E-2</v>
       </c>
-      <c r="W36" s="36">
+      <c r="W36" s="26">
         <f t="shared" ref="W36" si="78">(W35-V35)/V35</f>
         <v>-1.1326860841423949E-2</v>
       </c>
-      <c r="X36" s="36">
+      <c r="X36" s="26">
         <f t="shared" ref="X36" si="79">(X35-W35)/W35</f>
         <v>9.11854103343465E-3</v>
       </c>
-      <c r="Y36" s="36">
+      <c r="Y36" s="26">
         <f t="shared" ref="Y36" si="80">(Y35-X35)/X35</f>
         <v>-1.2048192771084338E-2</v>
       </c>
-      <c r="Z36" s="36">
+      <c r="Z36" s="26">
         <f t="shared" ref="Z36" si="81">(Z35-Y35)/Y35</f>
         <v>-1.125703564727955E-2</v>
       </c>
-      <c r="AA36" s="36">
+      <c r="AA36" s="26">
         <f t="shared" ref="AA36" si="82">(AA35-Z35)/Z35</f>
         <v>-5.9297912713472487E-3</v>
       </c>
-      <c r="AB36" s="36">
+      <c r="AB36" s="26">
         <f t="shared" ref="AB36" si="83">(AB35-AA35)/AA35</f>
         <v>-2.0758768790264854E-2</v>
       </c>
-      <c r="AC36" s="36">
+      <c r="AC36" s="26">
         <f t="shared" ref="AC36" si="84">(AC35-AB35)/AB35</f>
         <v>0</v>
       </c>
@@ -8019,7 +8475,7 @@
       <c r="AB57" s="1">
         <v>509100000</v>
       </c>
-      <c r="AC57" s="35">
+      <c r="AC57" s="25">
         <v>0</v>
       </c>
     </row>
@@ -10072,7 +10528,7 @@
     </row>
     <row r="81" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B81" s="15" t="e">
         <f>B80/B4</f>
@@ -10364,10 +10820,10 @@
       <c r="AC83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ83" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK83" s="68"/>
+      <c r="AJ83" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK83" s="61"/>
     </row>
     <row r="84" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10457,10 +10913,10 @@
       <c r="AC84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ84" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK84" s="62"/>
+      <c r="AJ84" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK84" s="55"/>
     </row>
     <row r="85" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10550,10 +11006,10 @@
       <c r="AC85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ85" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK85" s="22">
+      <c r="AJ85" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK85" s="63">
         <f>AC18</f>
         <v>-44600000</v>
       </c>
@@ -10646,10 +11102,10 @@
       <c r="AC86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ86" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK86" s="22">
+      <c r="AJ86" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK86" s="63">
         <f>AC57</f>
         <v>0</v>
       </c>
@@ -10742,10 +11198,10 @@
       <c r="AC87" s="1">
         <v>333100000</v>
       </c>
-      <c r="AJ87" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK87" s="22">
+      <c r="AJ87" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK87" s="63">
         <f>AC62</f>
         <v>3514200000</v>
       </c>
@@ -10838,10 +11294,10 @@
       <c r="AC88" s="10">
         <v>8486800000</v>
       </c>
-      <c r="AJ88" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK88" s="27">
+      <c r="AJ88" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK88" s="65">
         <f>AK85/(AK86+AK87)</f>
         <v>-1.2691366456092425E-2</v>
       </c>
@@ -10934,17 +11390,17 @@
       <c r="AC89" s="1">
         <v>-1281800000</v>
       </c>
-      <c r="AJ89" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK89" s="22">
+      <c r="AJ89" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK89" s="63">
         <f>AC28</f>
         <v>969900000</v>
       </c>
     </row>
     <row r="90" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B90" s="15">
         <f>(-1*B89)/B4</f>
@@ -11058,10 +11514,10 @@
         <f t="shared" ref="AC90" si="110">(-1*AC89)/AC4</f>
         <v>6.0538222486705019E-2</v>
       </c>
-      <c r="AJ90" s="21" t="s">
+      <c r="AJ90" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AK90" s="22">
+      <c r="AK90" s="63">
         <f>AC26</f>
         <v>6456100000</v>
       </c>
@@ -11154,10 +11610,10 @@
       <c r="AC91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ91" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK91" s="27">
+      <c r="AJ91" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK91" s="65">
         <f>AK89/AK90</f>
         <v>0.15023001502455041</v>
       </c>
@@ -11250,10 +11706,10 @@
       <c r="AC92" s="1">
         <v>-334300000</v>
       </c>
-      <c r="AJ92" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK92" s="29">
+      <c r="AJ92" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK92" s="67">
         <f>AK88*(1-AK91)</f>
         <v>-1.0784742282711585E-2</v>
       </c>
@@ -11346,10 +11802,10 @@
       <c r="AC93" s="1">
         <v>864700000</v>
       </c>
-      <c r="AJ93" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK93" s="62"/>
+      <c r="AJ93" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK93" s="69"/>
     </row>
     <row r="94" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -11439,10 +11895,10 @@
       <c r="AC94" s="1">
         <v>-277500000</v>
       </c>
-      <c r="AJ94" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK94" s="23">
+      <c r="AJ94" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK94" s="70">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -11534,11 +11990,12 @@
       <c r="AC95" s="10">
         <v>-1028900000</v>
       </c>
-      <c r="AJ95" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK95" s="30">
-        <v>1.23</v>
+      <c r="AJ95" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK95" s="71" cm="1">
+        <f t="array" ref="AK95">_FV(A1,"Beta")</f>
+        <v>1.5926</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -11629,10 +12086,10 @@
       <c r="AC96" s="1">
         <v>-516200000</v>
       </c>
-      <c r="AJ96" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK96" s="23">
+      <c r="AJ96" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK96" s="70">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11724,12 +12181,12 @@
       <c r="AC97" s="1">
         <v>81800000</v>
       </c>
-      <c r="AJ97" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK97" s="29">
+      <c r="AJ97" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK97" s="67">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>9.3901499999999999E-2</v>
+        <v>0.10951143000000001</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -11820,10 +12277,10 @@
       <c r="AC98" s="1">
         <v>-4639700000</v>
       </c>
-      <c r="AJ98" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK98" s="62"/>
+      <c r="AJ98" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK98" s="69"/>
     </row>
     <row r="99" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11913,10 +12370,10 @@
       <c r="AC99" s="1">
         <v>-2559800000</v>
       </c>
-      <c r="AJ99" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK99" s="22">
+      <c r="AJ99" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK99" s="63">
         <f>AK86+AK87</f>
         <v>3514200000</v>
       </c>
@@ -12009,12 +12466,12 @@
       <c r="AC100" s="1">
         <v>495600000</v>
       </c>
-      <c r="AJ100" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK100" s="27">
+      <c r="AJ100" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK100" s="65">
         <f>AK99/AK103</f>
-        <v>1.3972173340511191E-2</v>
+        <v>1.4176071797676935E-2</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12105,11 +12562,12 @@
       <c r="AC101" s="10">
         <v>-7138300000</v>
       </c>
-      <c r="AJ101" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK101" s="31">
-        <v>248000000000</v>
+      <c r="AJ101" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK101" s="38" cm="1">
+        <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
+        <v>244382400000</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12200,12 +12658,12 @@
       <c r="AC102" s="1">
         <v>-3100000</v>
       </c>
-      <c r="AJ102" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK102" s="27">
+      <c r="AJ102" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK102" s="65">
         <f>AK101/AK103</f>
-        <v>0.98602782665948885</v>
+        <v>0.98582392820232312</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12296,12 +12754,12 @@
       <c r="AC103" s="10">
         <v>316500000</v>
       </c>
-      <c r="AJ103" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK103" s="32">
+      <c r="AJ103" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK103" s="72">
         <f>AK99+AK101</f>
-        <v>251514200000</v>
+        <v>247896600000</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12392,10 +12850,10 @@
       <c r="AC104" s="1">
         <v>6951800000</v>
       </c>
-      <c r="AJ104" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK104" s="62"/>
+      <c r="AJ104" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK104" s="55"/>
     </row>
     <row r="105" spans="1:37" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
@@ -12485,17 +12943,17 @@
       <c r="AC105" s="11">
         <v>7268300000</v>
       </c>
-      <c r="AJ105" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK105" s="34">
+      <c r="AJ105" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK105" s="24">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>9.2438805676459207E-2</v>
+        <v>0.10780610282473457</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
@@ -12612,10 +13070,10 @@
       <c r="AG106" s="15"/>
       <c r="AH106" s="15"/>
       <c r="AI106" s="15"/>
-      <c r="AJ106" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK106" s="64"/>
+      <c r="AJ106" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK106" s="57"/>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
@@ -12705,170 +13163,171 @@
       <c r="AC107" s="1">
         <v>7167500000</v>
       </c>
-      <c r="AD107" s="37">
+      <c r="AD107" s="27">
         <f>AC107*(1+$AK$107)</f>
         <v>8385019720.069171</v>
       </c>
-      <c r="AE107" s="37">
+      <c r="AE107" s="27">
         <f t="shared" ref="AE107:AH107" si="112">AD107*(1+$AK$107)</f>
         <v>9809355522.2809734</v>
       </c>
-      <c r="AF107" s="37">
+      <c r="AF107" s="27">
         <f t="shared" si="112"/>
         <v>11475638576.281183</v>
       </c>
-      <c r="AG107" s="37">
+      <c r="AG107" s="27">
         <f t="shared" si="112"/>
         <v>13424967668.294973</v>
       </c>
-      <c r="AH107" s="37">
+      <c r="AH107" s="27">
         <f t="shared" si="112"/>
         <v>15705422900.585196</v>
       </c>
-      <c r="AI107" s="38" t="s">
+      <c r="AI107" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ107" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="AJ107" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK107" s="40">
+      <c r="AK107" s="30">
         <f>(SUM(AD5:AH5)/5)</f>
         <v>0.16986672062353261</v>
       </c>
     </row>
     <row r="108" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD108" s="38"/>
-      <c r="AE108" s="38"/>
-      <c r="AF108" s="38"/>
-      <c r="AG108" s="38"/>
-      <c r="AH108" s="41">
+      <c r="AD108" s="28"/>
+      <c r="AE108" s="28"/>
+      <c r="AF108" s="28"/>
+      <c r="AG108" s="28"/>
+      <c r="AH108" s="31">
         <f>AH107*(1+AK108)/(AK109-AK108)</f>
-        <v>238706162003.0907</v>
-      </c>
-      <c r="AI108" s="42" t="s">
+        <v>194406667189.405</v>
+      </c>
+      <c r="AI108" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ108" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="AJ108" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK108" s="44">
+      <c r="AK108" s="34">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD109" s="41">
+      <c r="AD109" s="31">
         <f t="shared" ref="AD109:AF109" si="113">AD108+AD107</f>
         <v>8385019720.069171</v>
       </c>
-      <c r="AE109" s="41">
+      <c r="AE109" s="31">
         <f t="shared" si="113"/>
         <v>9809355522.2809734</v>
       </c>
-      <c r="AF109" s="41">
+      <c r="AF109" s="31">
         <f t="shared" si="113"/>
         <v>11475638576.281183</v>
       </c>
-      <c r="AG109" s="41">
+      <c r="AG109" s="31">
         <f>AG108+AG107</f>
         <v>13424967668.294973</v>
       </c>
-      <c r="AH109" s="41">
+      <c r="AH109" s="31">
         <f>AH108+AH107</f>
-        <v>254411584903.6759</v>
-      </c>
-      <c r="AI109" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ109" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK109" s="46">
+        <v>210112090089.9902</v>
+      </c>
+      <c r="AI109" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ109" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK109" s="36">
         <f>AK105</f>
-        <v>9.2438805676459207E-2</v>
+        <v>0.10780610282473457</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD110" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE110" s="66"/>
+      <c r="AD110" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE110" s="59"/>
     </row>
     <row r="111" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD111" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE111" s="48">
+      <c r="AD111" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE111" s="38">
         <f>NPV(AK109,AD109,AE109,AF109,AG109,AH109)</f>
-        <v>197635671794.48132</v>
+        <v>158847524291.35104</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD112" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE112" s="48">
+      <c r="AD112" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE112" s="38">
         <f>AC41</f>
         <v>7376000000</v>
       </c>
     </row>
     <row r="113" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD113" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE113" s="48">
+      <c r="AD113" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE113" s="38">
         <f>AK99</f>
         <v>3514200000</v>
       </c>
     </row>
     <row r="114" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD114" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE114" s="48">
+      <c r="AD114" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE114" s="38">
         <f>AE111+AE112-AE113</f>
-        <v>201497471794.48132</v>
+        <v>162709324291.35104</v>
       </c>
     </row>
     <row r="115" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD115" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE115" s="71">
+      <c r="AD115" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE115" s="53">
         <f>AC35*(1+(5*AI17))</f>
         <v>389882549.20781785</v>
       </c>
     </row>
     <row r="116" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD116" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE116" s="51">
+      <c r="AD116" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE116" s="41">
         <f>AE114/AE115</f>
-        <v>516.81582621200562</v>
+        <v>417.32907672310978</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD117" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE117" s="52">
-        <v>609.11</v>
+      <c r="AD117" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE117" s="42" cm="1">
+        <f t="array" ref="AE117">_FV(A1,"Price")</f>
+        <v>607</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD118" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE118" s="54">
+      <c r="AD118" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE118" s="44">
         <f>AE116/AE117-1</f>
-        <v>-0.15152299878182007</v>
+        <v>-0.31247269073622774</v>
       </c>
     </row>
     <row r="119" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD119" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE119" s="55" t="str">
+      <c r="AD119" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE119" s="45" t="str">
         <f>IF(AE116&gt;AE117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
